--- a/data/long_razon/P23_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_2-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 17,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 33,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 2,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 14,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 46,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,44; -8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 13,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -5,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 57,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 58,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 74,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 43,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 42,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 28,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,48; -8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 3,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -5,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_2-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2834188155067575</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1016506854707861</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4383077730811488</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1280476723088968</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1114449777080269</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2802818091706617</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.08890894475911651</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1070403454187105</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3486743702107335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4574010823259463</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2898901723306395</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.08875357181636603</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.06897081225635598</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2611868606783709</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.02243778743380068</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2241655028359614</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2302136424207593</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1177173035192763</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.05220718740140774</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1745491495878894</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9791809644752092</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.37011020311277</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.06016373759917045</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6182055699576623</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07861207106782389</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.05330812900886776</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6202572035712448</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2365008567300597</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1176068054429566</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7442029900903521</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.122603806663274</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2613996722800573</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4974662171986894</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.07206141023060787</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1953572991316528</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.607523996520543</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4524992461781965</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3416097561825941</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.2591524998990967</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1254868260621756</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4003677840721829</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1678773693699252</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2410000008371975</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3156461075536997</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.3169028968330447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.03283191079512301</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1310448356609221</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.396297973787603</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4261359036527981</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.06294268840941827</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8687443844612746</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1137876973481022</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.04365433440193645</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.9790140468784793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.1480581031061972</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.04112056224996677</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5488233885394171</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1428449398453901</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.05864001545577989</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.004828503554270332</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.01971298841836316</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.04959765062941515</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.255138285248981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.481695141043175</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4197053616451252</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2345803248917839</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2702699184858234</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3701492126085983</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4115675158415275</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2974253459325568</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3196314083652453</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1928452980289727</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5074247104342351</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.568314645843734</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.892272054858672</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7650242911142786</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4485469961334622</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6648974866217667</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.3408744789738294</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3434422085370897</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.8565263719876398</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2473030918642433</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.09995146382817413</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5631767961849317</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1277415356064579</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1652909497451386</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3192930394530658</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.07365352471669562</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1351490433191662</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4272128516900945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3892579340974482</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.253376651785462</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2441249342550005</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.03672569599816069</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2694655970294521</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1337285920696541</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1741696550527217</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.219689750407852</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.263594804148207</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.09732528631590322</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06840630797149999</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9258620233686534</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2897777449339629</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.04301786351790052</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5466226792262029</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.03817187321523201</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.02857907380243095</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6220988867477435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
